--- a/planning/Types Matrix USE.xlsx
+++ b/planning/Types Matrix USE.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E08F6D4-A71E-40AF-84AE-811CFD482454}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,12 +14,8 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -143,6 +140,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -178,6 +192,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -353,145 +384,145 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B2" sqref="A1:T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -548,12 +579,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -610,12 +641,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -672,12 +703,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -734,12 +765,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -796,12 +827,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -858,12 +889,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -920,12 +951,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -982,12 +1013,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -1044,12 +1075,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1106,12 +1137,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1168,12 +1199,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1230,12 +1261,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -1292,12 +1323,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -1354,12 +1385,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -1416,12 +1447,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -1478,12 +1509,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -1540,12 +1571,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20">
         <v>1</v>
